--- a/쓰담쓰담 GAANT CHART.xlsx
+++ b/쓰담쓰담 GAANT CHART.xlsx
@@ -522,7 +522,7 @@
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -530,75 +530,75 @@
     <row r="1" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
-        <v>41724</v>
+        <v>41731</v>
       </c>
       <c r="C1" s="2">
         <f>B1+1</f>
-        <v>41725</v>
+        <v>41732</v>
       </c>
       <c r="D1" s="2">
         <f t="shared" ref="D1:S1" si="0">C1+1</f>
-        <v>41726</v>
+        <v>41733</v>
       </c>
       <c r="E1" s="3">
         <f t="shared" si="0"/>
-        <v>41727</v>
+        <v>41734</v>
       </c>
       <c r="F1" s="3">
         <f t="shared" si="0"/>
-        <v>41728</v>
+        <v>41735</v>
       </c>
       <c r="G1" s="2">
         <f t="shared" si="0"/>
-        <v>41729</v>
+        <v>41736</v>
       </c>
       <c r="H1" s="2">
         <f t="shared" si="0"/>
-        <v>41730</v>
+        <v>41737</v>
       </c>
       <c r="I1" s="2">
         <f t="shared" si="0"/>
-        <v>41731</v>
+        <v>41738</v>
       </c>
       <c r="J1" s="2">
         <f t="shared" si="0"/>
-        <v>41732</v>
+        <v>41739</v>
       </c>
       <c r="K1" s="2">
         <f t="shared" si="0"/>
-        <v>41733</v>
+        <v>41740</v>
       </c>
       <c r="L1" s="3">
         <f t="shared" si="0"/>
-        <v>41734</v>
+        <v>41741</v>
       </c>
       <c r="M1" s="3">
         <f t="shared" si="0"/>
-        <v>41735</v>
+        <v>41742</v>
       </c>
       <c r="N1" s="2">
         <f t="shared" si="0"/>
-        <v>41736</v>
+        <v>41743</v>
       </c>
       <c r="O1" s="2">
         <f t="shared" si="0"/>
-        <v>41737</v>
+        <v>41744</v>
       </c>
       <c r="P1" s="2">
         <f t="shared" si="0"/>
-        <v>41738</v>
+        <v>41745</v>
       </c>
       <c r="Q1" s="2">
         <f t="shared" si="0"/>
-        <v>41739</v>
+        <v>41746</v>
       </c>
       <c r="R1" s="2">
         <f t="shared" si="0"/>
-        <v>41740</v>
+        <v>41747</v>
       </c>
       <c r="S1" s="2">
         <f t="shared" si="0"/>
-        <v>41741</v>
+        <v>41748</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">

--- a/쓰담쓰담 GAANT CHART.xlsx
+++ b/쓰담쓰담 GAANT CHART.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">쓰담모듈개발 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,23 +38,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>협동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이어폰잭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나머지 기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모션디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터디자인 보완</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확장 브로드캐스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확장성연구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>연구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>협동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이어폰잭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NFC</t>
+    <t>수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -62,39 +98,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>용민</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나머지 기타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모션디자인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터디자인 보완</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보완</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확장 브로드캐스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확장성연구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연구</t>
+    <t>캐릭터 설명&amp; 레이아웃화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트로만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 진화 알고리즘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발파트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인파트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구파트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,7 +166,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,6 +209,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -208,7 +250,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -238,6 +280,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,93 +567,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2">
+    <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2">
         <v>41731</v>
       </c>
-      <c r="C1" s="2">
-        <f>B1+1</f>
+      <c r="D1" s="2">
+        <f>C1+1</f>
         <v>41732</v>
       </c>
-      <c r="D1" s="2">
-        <f t="shared" ref="D1:S1" si="0">C1+1</f>
+      <c r="E1" s="2">
+        <f t="shared" ref="E1:T1" si="0">D1+1</f>
         <v>41733</v>
       </c>
-      <c r="E1" s="3">
+      <c r="F1" s="3">
         <f t="shared" si="0"/>
         <v>41734</v>
       </c>
-      <c r="F1" s="3">
+      <c r="G1" s="3">
         <f t="shared" si="0"/>
         <v>41735</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <f t="shared" si="0"/>
         <v>41736</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <f t="shared" si="0"/>
         <v>41737</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <f t="shared" si="0"/>
         <v>41738</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <f t="shared" si="0"/>
         <v>41739</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <f t="shared" si="0"/>
         <v>41740</v>
       </c>
-      <c r="L1" s="3">
+      <c r="M1" s="3">
         <f t="shared" si="0"/>
         <v>41741</v>
       </c>
-      <c r="M1" s="3">
+      <c r="N1" s="3">
         <f t="shared" si="0"/>
         <v>41742</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <f t="shared" si="0"/>
         <v>41743</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <f t="shared" si="0"/>
         <v>41744</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <f t="shared" si="0"/>
         <v>41745</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="2">
         <f t="shared" si="0"/>
         <v>41746</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <f t="shared" si="0"/>
         <v>41747</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T1" s="2">
         <f t="shared" si="0"/>
         <v>41748</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -613,35 +667,51 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="U3" s="6"/>
-      <c r="V3" s="7" t="s">
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+    </row>
+    <row r="3" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+    </row>
+    <row r="4" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -650,16 +720,28 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="7" t="s">
+      <c r="K4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -667,19 +749,27 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="U5" s="5"/>
-      <c r="V5" s="7" t="s">
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -688,75 +778,185 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="K6" s="8"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+    </row>
+    <row r="8" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+    </row>
+    <row r="9" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-    </row>
-    <row r="8" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+    </row>
+    <row r="10" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+    </row>
+    <row r="11" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="P11" s="11"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="11"/>
+    </row>
+    <row r="12" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-    </row>
-    <row r="10" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
+    </row>
+    <row r="13" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/쓰담쓰담 GAANT CHART.xlsx
+++ b/쓰담쓰담 GAANT CHART.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="4월2일~" sheetId="1" r:id="rId1"/>
+    <sheet name="4월18일~" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,33 +25,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
   <si>
     <t xml:space="preserve">쓰담모듈개발 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>위젯 애니매이션 연구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>협동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이어폰잭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>완성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>위젯 애니매이션 연구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>협동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이어폰잭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NFC</t>
+    <t>용민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나머지 기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터디자인 보완</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확장 브로드캐스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확장성연구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -58,31 +91,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>용민</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나머지 기타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모션디자인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터디자인 보완</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확장 브로드캐스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확장성연구</t>
+    <t>캐릭터 설명&amp; 레이아웃화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트로만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 진화 알고리즘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발파트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인파트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구파트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -90,19 +127,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>완성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>캐릭터 설명&amp; 레이아웃화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발</t>
+    <t>완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰담 횟수에따른 변동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -110,27 +143,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>디자인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 진화 알고리즘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발파트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디자인파트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연구파트</t>
+    <t>피드백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰담하는거에따른 모션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -166,7 +191,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,6 +240,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -250,7 +281,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -286,6 +317,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -581,38 +618,38 @@
     <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="2">
+      <c r="C1" s="13">
         <v>41731</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="13">
         <f>C1+1</f>
         <v>41732</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="13">
         <f t="shared" ref="E1:T1" si="0">D1+1</f>
         <v>41733</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="13">
         <f t="shared" si="0"/>
         <v>41734</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="13">
         <f t="shared" si="0"/>
         <v>41735</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="13">
         <f t="shared" si="0"/>
         <v>41736</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="13">
         <f t="shared" si="0"/>
         <v>41737</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="13">
         <f t="shared" si="0"/>
         <v>41738</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="13">
         <f t="shared" si="0"/>
         <v>41739</v>
       </c>
@@ -655,7 +692,7 @@
     </row>
     <row r="2" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -668,23 +705,23 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
     <row r="3" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -694,23 +731,23 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
     </row>
     <row r="4" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -721,7 +758,7 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
@@ -734,13 +771,13 @@
       <c r="T4" s="11"/>
       <c r="V4" s="6"/>
       <c r="W4" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -751,24 +788,26 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
       <c r="V5" s="8"/>
       <c r="W5" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -779,24 +818,26 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="V6" s="5"/>
       <c r="W6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -806,157 +847,661 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
     </row>
     <row r="8" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="11"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
       <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
     </row>
     <row r="9" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
+      <c r="A9" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="B9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
       <c r="S9" s="11"/>
       <c r="T9" s="11"/>
     </row>
     <row r="10" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
+        <v>27</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
     </row>
     <row r="11" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="S11" s="11"/>
       <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
     </row>
     <row r="12" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+    </row>
+    <row r="13" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="11"/>
+    </row>
+    <row r="14" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W15"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2">
+        <v>41747</v>
+      </c>
+      <c r="D1" s="3">
+        <f>C1+1</f>
+        <v>41748</v>
+      </c>
+      <c r="E1" s="3">
+        <f t="shared" ref="E1:T1" si="0">D1+1</f>
+        <v>41749</v>
+      </c>
+      <c r="F1" s="2">
+        <f t="shared" si="0"/>
+        <v>41750</v>
+      </c>
+      <c r="G1" s="2">
+        <f t="shared" si="0"/>
+        <v>41751</v>
+      </c>
+      <c r="H1" s="2">
+        <f t="shared" si="0"/>
+        <v>41752</v>
+      </c>
+      <c r="I1" s="2">
+        <f t="shared" si="0"/>
+        <v>41753</v>
+      </c>
+      <c r="J1" s="2">
+        <f t="shared" si="0"/>
+        <v>41754</v>
+      </c>
+      <c r="K1" s="2">
+        <f t="shared" si="0"/>
+        <v>41755</v>
+      </c>
+      <c r="L1" s="2">
+        <f t="shared" si="0"/>
+        <v>41756</v>
+      </c>
+      <c r="M1" s="3">
+        <f t="shared" si="0"/>
+        <v>41757</v>
+      </c>
+      <c r="N1" s="3">
+        <f t="shared" si="0"/>
+        <v>41758</v>
+      </c>
+      <c r="O1" s="2">
+        <f t="shared" si="0"/>
+        <v>41759</v>
+      </c>
+      <c r="P1" s="2">
+        <f t="shared" si="0"/>
+        <v>41760</v>
+      </c>
+      <c r="Q1" s="2">
+        <f t="shared" si="0"/>
+        <v>41761</v>
+      </c>
+      <c r="R1" s="3">
+        <f t="shared" si="0"/>
+        <v>41762</v>
+      </c>
+      <c r="S1" s="3">
+        <f t="shared" si="0"/>
+        <v>41763</v>
+      </c>
+      <c r="T1" s="2">
+        <f t="shared" si="0"/>
+        <v>41764</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+    </row>
+    <row r="3" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+    </row>
+    <row r="4" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="V6" s="5"/>
+      <c r="W6" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+    </row>
+    <row r="8" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="11"/>
+    </row>
+    <row r="9" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+    </row>
+    <row r="10" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+    </row>
+    <row r="11" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="4"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+    </row>
+    <row r="12" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+    </row>
+    <row r="13" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="11"/>
+    </row>
+    <row r="14" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/쓰담쓰담 GAANT CHART.xlsx
+++ b/쓰담쓰담 GAANT CHART.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t xml:space="preserve">쓰담모듈개발 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,7 +281,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -323,6 +323,12 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -604,18 +610,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="8.375" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11"/>
       <c r="B1" s="1"/>
       <c r="C1" s="13">
@@ -690,7 +698,7 @@
         <v>41748</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
@@ -718,7 +726,7 @@
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="4" t="s">
         <v>20</v>
@@ -744,7 +752,7 @@
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
     </row>
-    <row r="4" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="4" t="s">
         <v>3</v>
@@ -774,7 +782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="4" t="s">
         <v>5</v>
@@ -804,7 +812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="4" t="s">
         <v>8</v>
@@ -834,7 +842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="4" t="s">
         <v>1</v>
@@ -860,7 +868,7 @@
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
     </row>
-    <row r="8" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="4" t="s">
         <v>30</v>
@@ -883,7 +891,7 @@
       <c r="R8" s="8"/>
       <c r="S8" s="11"/>
     </row>
-    <row r="9" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
@@ -913,7 +921,7 @@
       <c r="S9" s="11"/>
       <c r="T9" s="11"/>
     </row>
-    <row r="10" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="10" t="s">
         <v>27</v>
@@ -942,7 +950,7 @@
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
     </row>
-    <row r="11" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="10" t="s">
         <v>9</v>
@@ -966,7 +974,7 @@
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
     </row>
-    <row r="12" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="10" t="s">
         <v>16</v>
@@ -992,7 +1000,7 @@
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
     </row>
-    <row r="13" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>23</v>
       </c>
@@ -1008,19 +1016,19 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6" t="s">
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="11"/>
-    </row>
-    <row r="14" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W13" s="11"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="11"/>
+    </row>
+    <row r="14" spans="1:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="4" t="s">
         <v>12</v>
@@ -1034,19 +1042,19 @@
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
       <c r="S14" s="6"/>
-      <c r="T14" s="6" t="s">
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
     </row>
   </sheetData>
@@ -1061,7 +1069,7 @@
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="C13" sqref="C13:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1151,78 +1159,75 @@
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="15"/>
     </row>
     <row r="3" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="15"/>
     </row>
     <row r="4" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="15"/>
       <c r="V4" s="6"/>
       <c r="W4" s="7" t="s">
         <v>2</v>
@@ -1233,26 +1238,25 @@
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="15"/>
       <c r="V5" s="8"/>
       <c r="W5" s="7" t="s">
         <v>4</v>
@@ -1263,26 +1267,25 @@
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="15"/>
       <c r="V6" s="5"/>
       <c r="W6" s="7" t="s">
         <v>7</v>
@@ -1293,49 +1296,50 @@
       <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="15"/>
     </row>
     <row r="8" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="11"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
     </row>
     <row r="9" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
@@ -1344,28 +1348,25 @@
       <c r="B9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="15"/>
     </row>
     <row r="10" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
@@ -1381,70 +1382,66 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
-      <c r="L10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
     </row>
     <row r="11" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
     </row>
     <row r="12" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="15"/>
     </row>
     <row r="13" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
@@ -1453,50 +1450,32 @@
       <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6" t="s">
         <v>13</v>
       </c>
     </row>

--- a/쓰담쓰담 GAANT CHART.xlsx
+++ b/쓰담쓰담 GAANT CHART.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tommy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\StatusWidget\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>협동</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,14 @@
   </si>
   <si>
     <t>기획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과음 넣기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UX 보수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -75,7 +83,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -182,7 +190,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -465,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -577,7 +585,9 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6"/>
@@ -645,8 +655,14 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
+    <row r="11" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>